--- a/Deliverable/Beta_Iteration/output.xlsx
+++ b/Deliverable/Beta_Iteration/output.xlsx
@@ -429,19 +429,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>210</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -450,19 +450,19 @@
         <v>0.1</v>
       </c>
       <c r="C3">
-        <v>28</v>
+        <v>210</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -471,19 +471,19 @@
         <v>0.2</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>204</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -492,19 +492,19 @@
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -513,19 +513,19 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>193</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -534,19 +534,19 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -555,19 +555,19 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -576,19 +576,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
+        <v>155</v>
+      </c>
+      <c r="D9">
+        <v>19</v>
+      </c>
+      <c r="E9">
         <v>15</v>
       </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="F9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -597,19 +597,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C10">
-        <v>12</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -618,19 +618,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>54</v>
+        <v>338</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -674,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -683,10 +683,10 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -704,10 +704,10 @@
         <v>0.2</v>
       </c>
       <c r="C15">
-        <v>54</v>
+        <v>337</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -725,10 +725,10 @@
         <v>0.3</v>
       </c>
       <c r="C16">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -746,10 +746,10 @@
         <v>0.4</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>336</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -767,19 +767,19 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>338</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -788,10 +788,10 @@
         <v>0.6</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -809,19 +809,19 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20">
         <v>2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -830,19 +830,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C21">
-        <v>27</v>
+        <v>319</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -851,19 +851,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C22">
-        <v>12</v>
+        <v>284</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -872,19 +872,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>0.1</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>391</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -937,7 +937,7 @@
         <v>0.2</v>
       </c>
       <c r="C26">
-        <v>64</v>
+        <v>395</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -958,13 +958,13 @@
         <v>0.3</v>
       </c>
       <c r="C27">
-        <v>65</v>
+        <v>398</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -979,7 +979,7 @@
         <v>0.4</v>
       </c>
       <c r="C28">
-        <v>64</v>
+        <v>407</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1000,7 +1000,7 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>62</v>
+        <v>407</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1021,16 +1021,16 @@
         <v>0.6</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>404</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -1042,16 +1042,16 @@
         <v>0.7</v>
       </c>
       <c r="C31">
-        <v>60</v>
+        <v>384</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>3</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1063,10 +1063,10 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>371</v>
       </c>
       <c r="D32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E32">
         <v>4</v>
@@ -1084,19 +1084,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C33">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G33">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1105,19 +1105,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>211</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>69</v>
+        <v>426</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1170,7 +1170,7 @@
         <v>0.2</v>
       </c>
       <c r="C37">
-        <v>69</v>
+        <v>425</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -1191,16 +1191,16 @@
         <v>0.3</v>
       </c>
       <c r="C38">
-        <v>68</v>
+        <v>428</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>0.4</v>
       </c>
       <c r="C39">
-        <v>69</v>
+        <v>431</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -1233,19 +1233,19 @@
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>69</v>
+        <v>422</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>0.6</v>
       </c>
       <c r="C41">
-        <v>67</v>
+        <v>427</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1275,7 +1275,7 @@
         <v>0.7</v>
       </c>
       <c r="C42">
-        <v>68</v>
+        <v>413</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1296,19 +1296,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C43">
-        <v>62</v>
+        <v>393</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1317,19 +1317,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C44">
-        <v>35</v>
+        <v>332</v>
       </c>
       <c r="D44">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1338,19 +1338,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="D45">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1382,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>0.2</v>
       </c>
       <c r="C48">
-        <v>73</v>
+        <v>448</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>0.3</v>
       </c>
       <c r="C49">
-        <v>72</v>
+        <v>448</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>0.4</v>
       </c>
       <c r="C50">
-        <v>72</v>
+        <v>448</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1466,19 +1466,19 @@
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>71</v>
+        <v>443</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1487,7 +1487,7 @@
         <v>0.6</v>
       </c>
       <c r="C52">
-        <v>69</v>
+        <v>443</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1499,7 +1499,7 @@
         <v>1</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1508,16 +1508,16 @@
         <v>0.7</v>
       </c>
       <c r="C53">
-        <v>69</v>
+        <v>435</v>
       </c>
       <c r="D53">
         <v>4</v>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -1529,7 +1529,7 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C54">
-        <v>61</v>
+        <v>386</v>
       </c>
       <c r="D54">
         <v>5</v>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>338</v>
       </c>
       <c r="D55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1571,19 +1571,19 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>34</v>
+        <v>214</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Deliverable/Beta_Iteration/output.xlsx
+++ b/Deliverable/Beta_Iteration/output.xlsx
@@ -429,7 +429,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -453,7 +453,7 @@
         <v>210</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4">
         <v>15</v>
@@ -495,7 +495,7 @@
         <v>193</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>9</v>
@@ -513,7 +513,7 @@
         <v>0.4</v>
       </c>
       <c r="C6">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -534,10 +534,10 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>11</v>
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -555,13 +555,13 @@
         <v>0.6</v>
       </c>
       <c r="C8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -576,19 +576,19 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D9">
         <v>19</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -600,16 +600,16 @@
         <v>134</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>20</v>
       </c>
       <c r="F10">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -618,19 +618,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -645,13 +645,13 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -683,7 +683,7 @@
         <v>0.1</v>
       </c>
       <c r="C14">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -725,10 +725,10 @@
         <v>0.3</v>
       </c>
       <c r="C16">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -746,7 +746,7 @@
         <v>0.4</v>
       </c>
       <c r="C17">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D17">
         <v>7</v>
@@ -758,7 +758,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -767,16 +767,16 @@
         <v>0.5</v>
       </c>
       <c r="C18">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D18">
         <v>7</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>6</v>
@@ -791,16 +791,16 @@
         <v>332</v>
       </c>
       <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
         <v>7</v>
-      </c>
-      <c r="E19">
-        <v>4</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -809,13 +809,13 @@
         <v>0.7</v>
       </c>
       <c r="C20">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F20">
         <v>2</v>
@@ -830,19 +830,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C21">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -851,19 +851,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C22">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="D22">
         <v>11</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -872,7 +872,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23">
         <v>39</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D24">
         <v>4</v>
@@ -916,7 +916,7 @@
         <v>0.1</v>
       </c>
       <c r="C25">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D25">
         <v>4</v>
@@ -937,7 +937,7 @@
         <v>0.2</v>
       </c>
       <c r="C26">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -958,10 +958,10 @@
         <v>0.3</v>
       </c>
       <c r="C27">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -979,7 +979,7 @@
         <v>0.4</v>
       </c>
       <c r="C28">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D28">
         <v>5</v>
@@ -1000,7 +1000,7 @@
         <v>0.5</v>
       </c>
       <c r="C29">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D29">
         <v>5</v>
@@ -1009,10 +1009,10 @@
         <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1021,13 +1021,13 @@
         <v>0.6</v>
       </c>
       <c r="C30">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -1051,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <v>5</v>
@@ -1063,19 +1063,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C32">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D32">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1084,19 +1084,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C33">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D33">
         <v>9</v>
       </c>
       <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>7</v>
+      </c>
+      <c r="G33">
         <v>9</v>
-      </c>
-      <c r="F33">
-        <v>8</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1105,16 +1105,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E34">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F34">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G34">
         <v>26</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -1149,7 +1149,7 @@
         <v>0.1</v>
       </c>
       <c r="C36">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -1170,10 +1170,10 @@
         <v>0.2</v>
       </c>
       <c r="C37">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1191,7 +1191,7 @@
         <v>0.3</v>
       </c>
       <c r="C38">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>2</v>
@@ -1212,7 +1212,7 @@
         <v>0.4</v>
       </c>
       <c r="C39">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -1233,19 +1233,19 @@
         <v>0.5</v>
       </c>
       <c r="C40">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="D40">
         <v>4</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>1</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1254,7 +1254,7 @@
         <v>0.6</v>
       </c>
       <c r="C41">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1275,19 +1275,19 @@
         <v>0.7</v>
       </c>
       <c r="C42">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="D42">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1296,19 +1296,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C43">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D43">
         <v>5</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G43">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1317,7 +1317,7 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C44">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D44">
         <v>7</v>
@@ -1338,13 +1338,13 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D45">
         <v>24</v>
       </c>
       <c r="E45">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45">
         <v>12</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -1382,7 +1382,7 @@
         <v>0.1</v>
       </c>
       <c r="C47">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D47">
         <v>3</v>
@@ -1403,7 +1403,7 @@
         <v>0.2</v>
       </c>
       <c r="C48">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D48">
         <v>3</v>
@@ -1424,7 +1424,7 @@
         <v>0.3</v>
       </c>
       <c r="C49">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -1445,7 +1445,7 @@
         <v>0.4</v>
       </c>
       <c r="C50">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -1466,19 +1466,19 @@
         <v>0.5</v>
       </c>
       <c r="C51">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1487,7 +1487,7 @@
         <v>0.6</v>
       </c>
       <c r="C52">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -1508,10 +1508,10 @@
         <v>0.7</v>
       </c>
       <c r="C53">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -1529,19 +1529,19 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C54">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="D54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1550,19 +1550,19 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C55">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>7</v>
+      </c>
+      <c r="F55">
         <v>6</v>
       </c>
-      <c r="E55">
-        <v>6</v>
-      </c>
-      <c r="F55">
-        <v>5</v>
-      </c>
       <c r="G55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1571,7 +1571,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D56">
         <v>23</v>
